--- a/青马易战_12.xlsx
+++ b/青马易战_12.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D653"/>
+  <dimension ref="A1:D709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14839,6 +14839,1241 @@
         </is>
       </c>
     </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>实施区域协调发展战略需要支持（）地区经济转型发展。</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 资源型  B. 能源型  C. 多产型  D. 科技型 </t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>A.资源型</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>人类只有一个地球，各国共处一个世界。共同发展是持续发展的重要基础，符合各国人民长远利益和根本利益。</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>解决人民温饱问题、人民生活总体上达到小康水平这两个目标还未实现。</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>B.错误</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>对党员要进行共产主义（）教育。</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 崇高理想  B. 远大抱负  C. 坚定信念  D. 远大理想 </t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>D.远大理想</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>（）成为科技为社会服务的基本方向</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 绿色科技  B. 人民利益  C. 环境保护  D. 经济发展 </t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>第二次青藏高原综合科学考察研究2017年8月19日在拉萨启动。青藏高原是世界屋脊、亚洲水塔，是地球第三极，是我国重要的生态安全屏障、战略资源储备基地，是中华民族特色文化的重要保护地。</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>A.正确</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>以保障和改善民生为重点，解决好人民最关心、最直接、最现实的（）。</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 现实利益  B. 既得利益  C. 利益问题  D. 现实问题 </t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>C..利益问题</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>在新时期广泛开展（），筹办好北京冬奥会、冬残奥会，加强中外人文交流，以我为主，兼收并蓄。</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 全民健身运动  B. 全民读书运动  C. 全民创新运动  D. 全民服务运动 </t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>A.全民健身运动</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>按照联合国标准，中国还有（）亿左右人口生活在贫困线以下。</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 一  B. 二  C. 三  D. 四 </t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>B.二</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>党的十九大主席团在（）举行第二次会议</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 10月20日  B. 10月21日  C. 10月22日  D. 10月19日 </t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>贯彻（）强军思想，加强人民解放军的建设。</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 马克思  B. 邓小平  C. 习近平  D. 毛泽东 </t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>C.习近平</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>科技创新是提高社会生产力和综合国力的战略支撑</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>要深化文化体制改革，完善文化管理体制，加快构建把（）放在首位、（）和（）相统一的体制机制。</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 社会效益社会效益经济效益  B. 社会效益经济效益生态效益  C. 生态效益经济效益社会效益  D. 经济效益社会效益生态效益 </t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>（）年爆发了国际经济金融危机</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 2008  B. 2010  C. 2015  D. 2018 </t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>A.2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>习近平在哲学社会科学工作座谈会上的讲话上说，坚持和发展中国特色社会必须高度重视哲学社会科学。</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>A.正确</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>为了推动人与自然的和谐发展现代建设化建设新格局，为保护生态环境做出我们这代人的努力，我们应该牢固树立（）</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 社会主义自然保护观  B. 社会主义生态环境观  C. 社会主义生态文明观  D. 社会主义文明生活观 </t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>C.社会主义生态文明观</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>新时代中国特色社会主义思想，明确坚持和发展中国特色社会主义，总任务是实现社会主义现代化和中华民族伟大复兴。</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>习近平总书记在中国科学院第17次院士大会上提出，（）是民族进步之魂，（）是国家强盛之基。</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 创新；经济  B. 创新；和平  C. 创新；科技  D. 科技；创新 </t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>调整经济结构，转变经济发展方式，推进（）改革。</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 供给侧结构性  B. 结构性  C. 供给侧性  D. 需求侧结构性 </t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>&amp;nbsp;改革开放应当大胆探索，勇于开拓，提高改革决策的科学性，更加注重改革的系统性、整体性、协同性，在（&amp;nbsp;）中开创新路。</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 发展  B. 探索  C. 尝试  D. 实践 </t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>新时代军队的要求不包括下列哪项？（）</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 听党指挥  B. 能打胜仗  C. 战无不胜  D. 作风优良 </t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>改革开放之初，我们党发出了走自己的路、建设中国特色社会主义的伟大号召。经过长期努力，中国特色社会主义进入了新时代，这是我国发展新的历史方位。</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>从严治党靠教育，也靠</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 改革  B. 制度  C. 惩治  D. 法治 </t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>深化党和国家机构改革是提高党的执政能力和领导水平的必然要求</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>在党的十九大上，习近平同志指出要着力解决（&amp;nbsp;）环境问题</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 贫困地区的  B. 突出的  C. 范围广的  D. 落后地区的 </t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>48、习近平新时代中国特色社会主义思想写入（）。</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 《中华人民共和国宪法》  B. 《中国共产党党章》  C. 《中国共产党纪律处分条例》  D. 《中国共产党党内监督条例》 </t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>B.《中国共产党党章》</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>发达国家和发展中国家对造成气候变化的历史责任（）</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 不同  B. 相同  C. 相似  D. 相反 </t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>民间外交是推进文明交流互鉴最深厚的力量</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>A.正确</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>坚持民主集中制是强化党内监督的核心。</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>新时代中国特色社会主义思想，是对马克思列宁主义、毛泽东思想、邓小平理论、三个代表重要思想、科学发展观的继承和发展</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>充分发挥联合国及其（）会在止战维和方面的核心作用，通过和平解决争端和强制性行动双轨并举，化干戈为玉帛。</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 同盟  B. 国际  C. 安理  D. 民权 </t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>C.安理</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>中国社会主义不是教科书里的教条，不是刻板僵化的戒律，而是在实践中不断发展变化的（）。</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 生命体  B. 改革体  C. 革命体  D. 斗争体 </t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>改革开放以来，我们党经受着执政和（）的双重考验</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 改革开放  B. 国外敌对势力  C. 经济建设  D. 文化发展 </t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>A.改革开放</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>党的十六大闭幕不久，()同志带领中央书记处的同志去西柏坡重温毛泽东同志的两个务必重要讲话</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 胡锦涛  B. 邓小平  C. 江泽民  D. 习近平 </t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>A.胡锦涛</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>我国发展正处在转变发展方式、优化经济结构、转换增长动力的()。</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 突破期  B. 开拓期  C. 建设期  D. 攻关期 </t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2016年10月21日，习近平总书记在中国工农红军长征胜利（）周年会议上发表重要讲话。</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 80  B. 90  C. 85  D. 95 </t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>A.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>十九大聚焦人民对美好生活的向往，制定了新时代中国特色社会主义的行动纲领和发展蓝图</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>A.正确</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>（）是中英深度合作的一个缩影，也是全球开放的一个生动诠释。</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 金融城  B. 文化城  C. 游艺城  D. 文明城 </t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>党中央于2016年颁布的《国家创新驱动发展战略纲要》明确，我国科技事业发展的目标是，到2020年时使我国进入创新型国家行列，到2030年时使我国进入创新型国家前列。</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>供给侧结构性改革需要推动对外开放、大数据、人工智能和实体经济深度融合。</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>B.错误</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>（）是当代中国是鲜明标志和活力源泉，是发展中国特色社会主义的必由之路</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 改革开放  B. 理论创新  C. 依法治国  D. 文化强国 </t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>下列哪点不是发展中国特色社会主义文化的主要措施？（）</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 牢牢掌握意识形态工作领导权。  B. 要培育和践行社会主义核心价值观。  C. 要加强思想道德建设  D. 严格管理文化事业文化产业 </t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>D.严格管理文化事业文化产业</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>大力发展教育、科学、文化事业，推动中华优秀传统文化（）。</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 创造性转化、创新性发展  B. 可持续发展  C. 创新性发展  D. 创造性转化 </t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>习近平在二〇二二年新年贺词中指出，七月一日，我们隆重庆祝中国共产党成立一百周年。站在天安门城楼上感慨系之，历史征程风云激荡，中国共产党人带领亿万人民经千难而百折不挠、历万险而矢志不渝，成就了百年大党的恢宏气象。（），方得始终。我们唯有（）、（），方能不负历史、不负时代、不负人民。</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 不忘初心  B. 踔厉奋发  C. 笃行不怠 </t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>A.不忘初心、B.踔厉奋发、C.笃行不怠</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>习近平在中国文联十大、中国作协九大开幕式上讲话中说道，文艺自信是更基础、更广泛、更深厚的自信，是更基本、更深沉、更持久的力量。</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>厦门会晤的主题是深化金砖伙伴关系，开辟更加光明未来</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>金砖国家要顺应历史大势，把握发展机遇，合力克服挑战，为构建新型国际关系、构建人类命运共同体发挥建设性作用</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>是党组织教育管理党员
+和党员进行党性锻炼的主要平台。</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 党代会  B. 民主生活会  C. 党内政治生活  D. 群众路线教育实践活动 </t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>（）是中国社会主义改革开放和现代化建设的总设计师，中国特色社会主义道路的开创者</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 毛泽东  B. 周恩来  C. 邓小平  D. 江泽民 </t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>党的十九大报告指出，适应世界新军事革命发展趋势和国家安全需求，提高建设质量和效益，确保到（）年基本实现机械化</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 2035  B. 2030  C. 2025  D. 2020 </t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>D.2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2014年7月15日，习近平在接受拉美四国媒体联合采访提到：中国与委内瑞拉关系正处在承前启后、继往开来的重要阶段。</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>中国特色社会主义制度更加完善，国家治理体系和治理能力现代化水平明显提高。</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>习近平同志指出：中国要
+出问题主要出在共产党内，我们党要出问题主
+要出在。</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 领导身上  B. 干部身上  C. 党员身上  D. 基层组织 </t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>B.干部身上</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>改革开放主要领域改革主体框架基本确立。</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2017年7月1日，习近平总书记在香港回归（）周年上发表重要讲话</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 19  B. 20  C. 21  D. 22 </t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>金砖国家合作是不断前进的历史进程。我们要在总结经验的基础上，规划新的合作蓝图。</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. 正确  B. 错误 </t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>A.正确</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
